--- a/resource/reports/stuScores/2017spring_stu_score_list.xlsx
+++ b/resource/reports/stuScores/2017spring_stu_score_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>学号</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>吕轻侯</t>
+  </si>
+  <si>
+    <t>12212004</t>
+  </si>
+  <si>
+    <t>李秀莲</t>
+  </si>
+  <si>
+    <t>12212005</t>
+  </si>
+  <si>
+    <t>郭芙蓉</t>
   </si>
   <si>
     <t>12212008</t>
@@ -412,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +528,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>4.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -527,6 +539,28 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
         <v>5.4</v>
       </c>
     </row>

--- a/resource/reports/stuScores/2017spring_stu_score_list.xlsx
+++ b/resource/reports/stuScores/2017spring_stu_score_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>学号</t>
   </si>
@@ -55,34 +55,16 @@
     <t>佟湘玉</t>
   </si>
   <si>
-    <t>12212003</t>
-  </si>
-  <si>
-    <t>吕轻侯</t>
-  </si>
-  <si>
-    <t>12212004</t>
-  </si>
-  <si>
-    <t>李秀莲</t>
-  </si>
-  <si>
-    <t>12212005</t>
-  </si>
-  <si>
-    <t>郭芙蓉</t>
+    <t>12212007</t>
+  </si>
+  <si>
+    <t>才旦卓玛</t>
   </si>
   <si>
     <t>12212008</t>
   </si>
   <si>
     <t>爱新觉罗·奕䜣</t>
-  </si>
-  <si>
-    <t>15211001</t>
-  </si>
-  <si>
-    <t>张贝贝</t>
   </si>
   <si>
     <t>15211002</t>
@@ -424,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,39 +510,6 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.800000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="n">
         <v>5.4</v>
       </c>
     </row>
